--- a/111-2/FUNDAMENTALS OF ELECTROMAGNETISM/Lab_35.xlsx
+++ b/111-2/FUNDAMENTALS OF ELECTROMAGNETISM/Lab_35.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\111-2\FUNDAMENTALS OF ELECTROMAGNETISM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94F4E9A1-645E-4622-A615-D966E61B5D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600AFAC-FC13-493E-B4D5-ED64720ABC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EDC1853E-1516-42F3-B37E-0559B47C220C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDC1853E-1516-42F3-B37E-0559B47C220C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -187,19 +187,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,10 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1536,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C32DD2-313E-4324-80AB-B085B55CCCA9}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="117" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="117" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1568,6 +1568,10 @@
       <c r="B2">
         <v>7341.2700999999997</v>
       </c>
+      <c r="C2" s="12">
+        <f>(B2-A2)/B2</f>
+        <v>1.7300821011880893E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1771,48 +1775,48 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="4">
         <v>0.95</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="4">
         <f>A32/SQRT(2)</f>
         <v>0.67175144212722004</v>
       </c>
@@ -1834,7 +1838,7 @@
         <f>(1/A5)*SQRT(C5/B5)</f>
         <v>1.5375520133814753</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="9">
         <f>(G32-F32)/G32</f>
         <v>0.13203231960235073</v>
       </c>
